--- a/docs/Projet RED - Gestion de projet - Groupe 8.xlsx
+++ b/docs/Projet RED - Gestion de projet - Groupe 8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e0bc43e79d14c25/Documents/Projet Red - Starter/Projet RED/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e0bc43e79d14c25/Documents/Projet RED/projet-red-groupe-8/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C05802-9CC8-4CAB-AE80-E275E46FDC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{39C05802-9CC8-4CAB-AE80-E275E46FDC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFFE27B7-A6B2-4262-AFEF-9DD5CCFE53AE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Membre 2</t>
   </si>
@@ -845,7 +845,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="84" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,11 +1342,15 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J23" s="5">
         <v>45912</v>
